--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-13_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-13_beg.xlsx
@@ -1976,7 +1976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  The "Emperors' Blade"...? *Spit*! You came all the way here today to mock me? Or are you here to kill me?!   
+    <t xml:space="preserve">[name="Talulah"]  The 'Emperors' Blade'...? *Spit*! You came all the way here today to mock me? Or are you here to kill me?!   
 </t>
   </si>
   <si>
@@ -2004,15 +2004,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  You didn't tell them who you really are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Is this part of your plan?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  *Hiss*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  You didn't tell them who you really are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Is this part of your plan?
 </t>
   </si>
   <si>
@@ -2028,11 +2028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  You can only turn one against another if there existed trust between them in the first place. I doubt there is any trust between you and the rest of them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  I can only surmise... You believe the trust they have for you will remain unscathed even after they come to know who you really are.
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  You can only turn one against another if there existed trust between them in the first place. I doubt there is any trust between you and the rest of them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  I can only surmise... You believe the trust they have for you will remain unscathed even after they come to know who you really are.
 </t>
   </si>
   <si>
@@ -2040,19 +2040,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Your words are strong... and confident.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  If this is as you expected... Very well, I must reassess the situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  I bid you goodbye, then. Remember this well. There is one thing we share with the people standing around you. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  We have no trust in you. You must take action to earn even the tiniest trickle of trust. 
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Your words are strong... and confident.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  If this is as you expected... Very well, I must reassess the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  I bid you goodbye, then. Remember this well. There is one thing we share with the people standing around you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  We have no trust in you. You must take action to earn even the tiniest trickle of trust. 
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*... You have a question?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  *Hiss*... You have a question?
 </t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Am I perhaps misunderstanding you?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Am I perhaps misunderstanding you?
 </t>
   </si>
   <si>
@@ -2076,11 +2076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Huff*...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Which secret?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  *Huff*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Which secret?
 </t>
   </si>
   <si>
@@ -2116,11 +2116,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  You are mistaken about one thing... I am not here alone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  There is one more of us behind you.
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  You are mistaken about one thing... I am not here alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  There is one more of us behind you.
 </t>
   </si>
   <si>
@@ -2140,11 +2140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Daughter of Kashchey, allow me to postulate that you've come to the following conclusion: Your peers will not be suspicious of you merely because of your identity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Then let us verify the results. If your judgment proves incorrect, then the promise your father made to us shall be considered void. 
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Daughter of Kashchey, allow me to postulate that you've come to the following conclusion: Your peers will not be suspicious of you merely because of your identity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Then let us verify the results. If your judgment proves incorrect, then the promise your father made to us shall be considered void. 
 </t>
   </si>
   <si>
@@ -2192,11 +2192,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  What you said could not be more different than how your father would see it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...I am afraid you may only prove to be a disappointment, leader of the Northern Tundra Infected.
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  What you said could not be more different than how your father would see it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  ...I am afraid you may only prove to be a disappointment, leader of the Northern Tundra Infected.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-13_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-13_beg.xlsx
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s a drain on resources to train someone to use the guerrillas' code words. If we want distribute whole sets of comms to everyone, we'll need to get our hands on the prototype somehow...
+    <t xml:space="preserve">[name="Talulah"]  It's a drain on resources to train someone to use the guerrillas' code words. If we want distribute whole sets of comms to everyone, we'll need to get our hands on the prototype somehow...
 </t>
   </si>
   <si>
